--- a/tested.xlsx
+++ b/tested.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="43">
   <si>
     <t xml:space="preserve">Tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo HTML Protector</t>
   </si>
   <si>
     <t xml:space="preserve">Tested OS</t>
@@ -157,6 +160,9 @@
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">△once only</t>
   </si>
   <si>
     <t xml:space="preserve">BlueStacks App Player</t>
@@ -394,14 +400,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D55" activeCellId="0" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,873 +420,965 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/tested.xlsx
+++ b/tested.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="71">
   <si>
     <t xml:space="preserve">Tested</t>
   </si>
@@ -58,6 +58,60 @@
     <t xml:space="preserve">Beep</t>
   </si>
   <si>
+    <t xml:space="preserve">View-source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrintScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shift+S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Shift+S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Alt+R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shift+I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shhift+K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shift+C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shift+J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seelection</t>
+  </si>
+  <si>
     <t xml:space="preserve">Windows 11 23H2</t>
   </si>
   <si>
@@ -70,24 +124,57 @@
     <t xml:space="preserve">〇</t>
   </si>
   <si>
+    <t xml:space="preserve">×</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl+Shift NoBGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Shift NoBGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Alt NoBGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">〇/Ctrl+Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edge</t>
   </si>
   <si>
+    <t xml:space="preserve">Ctrl+Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win+Alt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Firefox</t>
   </si>
   <si>
-    <t xml:space="preserve">Brocked</t>
+    <t xml:space="preserve">〇  NoSound</t>
   </si>
   <si>
     <t xml:space="preserve">Opera</t>
   </si>
   <si>
+    <t xml:space="preserve">〇/Ctrl+Shift NoSound</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brave</t>
   </si>
   <si>
     <t xml:space="preserve">Vivaldi</t>
   </si>
   <si>
+    <t xml:space="preserve">〇 NoBGM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sleipnir 6</t>
   </si>
   <si>
@@ -104,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chromium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">×</t>
   </si>
   <si>
     <t xml:space="preserve">falkon</t>
@@ -400,14 +484,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,930 +539,1325 @@
       <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K25" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tested.xlsx
+++ b/tested.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="95">
   <si>
     <t xml:space="preserve">Tested</t>
   </si>
@@ -365,7 +365,19 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Command+Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×（N/A）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command＋Option</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chromium(brew)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleipnir 4</t>
   </si>
   <si>
     <t xml:space="preserve">IOS 18.4 iPhone SE2</t>
@@ -615,11 +627,11 @@
   <dimension ref="A1:AN1054"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,31 +1704,31 @@
     </row>
     <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="AE16" s="0"/>
-      <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
-      <c r="AH16" s="0"/>
-      <c r="AI16" s="0"/>
-      <c r="AJ16" s="0"/>
-      <c r="AK16" s="0"/>
-      <c r="AL16" s="0"/>
-      <c r="AM16" s="0"/>
-      <c r="AN16" s="0"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
     </row>
     <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE17" s="0"/>
-      <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
-      <c r="AI17" s="0"/>
-      <c r="AJ17" s="0"/>
-      <c r="AK17" s="0"/>
-      <c r="AL17" s="0"/>
-      <c r="AM17" s="0"/>
-      <c r="AN17" s="0"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
     </row>
     <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1803,16 +1815,16 @@
       <c r="AB18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
-      <c r="AI18" s="0"/>
-      <c r="AJ18" s="0"/>
-      <c r="AK18" s="0"/>
-      <c r="AL18" s="0"/>
-      <c r="AM18" s="0"/>
-      <c r="AN18" s="0"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
     </row>
     <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1899,16 +1911,16 @@
       <c r="AB19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="0"/>
-      <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
-      <c r="AH19" s="0"/>
-      <c r="AI19" s="0"/>
-      <c r="AJ19" s="0"/>
-      <c r="AK19" s="0"/>
-      <c r="AL19" s="0"/>
-      <c r="AM19" s="0"/>
-      <c r="AN19" s="0"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1998,16 +2010,16 @@
       <c r="AC20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE20" s="0"/>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
-      <c r="AI20" s="0"/>
-      <c r="AJ20" s="0"/>
-      <c r="AK20" s="0"/>
-      <c r="AL20" s="0"/>
-      <c r="AM20" s="0"/>
-      <c r="AN20" s="0"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
     </row>
     <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2094,16 +2106,16 @@
       <c r="AB21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
-      <c r="AK21" s="0"/>
-      <c r="AL21" s="0"/>
-      <c r="AM21" s="0"/>
-      <c r="AN21" s="0"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
     </row>
     <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -2193,16 +2205,16 @@
       <c r="AC22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
-      <c r="AK22" s="0"/>
-      <c r="AL22" s="0"/>
-      <c r="AM22" s="0"/>
-      <c r="AN22" s="0"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
     </row>
     <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -2292,16 +2304,16 @@
       <c r="AC23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="0"/>
-      <c r="AF23" s="0"/>
-      <c r="AG23" s="0"/>
-      <c r="AH23" s="0"/>
-      <c r="AI23" s="0"/>
-      <c r="AJ23" s="0"/>
-      <c r="AK23" s="0"/>
-      <c r="AL23" s="0"/>
-      <c r="AM23" s="0"/>
-      <c r="AN23" s="0"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
     </row>
     <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -2337,16 +2349,16 @@
       <c r="K24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE24" s="0"/>
-      <c r="AF24" s="0"/>
-      <c r="AG24" s="0"/>
-      <c r="AH24" s="0"/>
-      <c r="AI24" s="0"/>
-      <c r="AJ24" s="0"/>
-      <c r="AK24" s="0"/>
-      <c r="AL24" s="0"/>
-      <c r="AM24" s="0"/>
-      <c r="AN24" s="0"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
     </row>
     <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -2433,43 +2445,43 @@
       <c r="AB25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE25" s="0"/>
-      <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
-      <c r="AH25" s="0"/>
-      <c r="AI25" s="0"/>
-      <c r="AJ25" s="0"/>
-      <c r="AK25" s="0"/>
-      <c r="AL25" s="0"/>
-      <c r="AM25" s="0"/>
-      <c r="AN25" s="0"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
     </row>
     <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
-      <c r="AK26" s="0"/>
-      <c r="AL26" s="0"/>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
     </row>
     <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
     </row>
     <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -2547,43 +2559,43 @@
       <c r="AB28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE28" s="0"/>
-      <c r="AF28" s="0"/>
-      <c r="AG28" s="0"/>
-      <c r="AH28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
-      <c r="AK28" s="0"/>
-      <c r="AL28" s="0"/>
-      <c r="AM28" s="0"/>
-      <c r="AN28" s="0"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
     </row>
     <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE29" s="0"/>
-      <c r="AF29" s="0"/>
-      <c r="AG29" s="0"/>
-      <c r="AH29" s="0"/>
-      <c r="AI29" s="0"/>
-      <c r="AJ29" s="0"/>
-      <c r="AK29" s="0"/>
-      <c r="AL29" s="0"/>
-      <c r="AM29" s="0"/>
-      <c r="AN29" s="0"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
     </row>
     <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="0"/>
-      <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-      <c r="AL30" s="0"/>
-      <c r="AM30" s="0"/>
-      <c r="AN30" s="0"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
     </row>
     <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -2592,19 +2604,94 @@
       <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE31" s="0"/>
-      <c r="AF31" s="0"/>
-      <c r="AG31" s="0"/>
-      <c r="AH31" s="0"/>
-      <c r="AI31" s="0"/>
-      <c r="AJ31" s="0"/>
-      <c r="AK31" s="0"/>
-      <c r="AL31" s="0"/>
-      <c r="AM31" s="0"/>
-      <c r="AN31" s="0"/>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
     </row>
     <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -2613,34 +2700,190 @@
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE32" s="0"/>
-      <c r="AF32" s="0"/>
-      <c r="AG32" s="0"/>
-      <c r="AH32" s="0"/>
-      <c r="AI32" s="0"/>
-      <c r="AJ32" s="0"/>
-      <c r="AK32" s="0"/>
-      <c r="AL32" s="0"/>
-      <c r="AM32" s="0"/>
-      <c r="AN32" s="0"/>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
     </row>
     <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0"/>
-      <c r="AN33" s="0"/>
+      <c r="O33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
     </row>
     <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -2649,389 +2892,693 @@
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AE34" s="0"/>
-      <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
-      <c r="AH34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-      <c r="AL34" s="0"/>
-      <c r="AM34" s="0"/>
-      <c r="AN34" s="0"/>
-    </row>
-    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE35" s="0"/>
-      <c r="AF35" s="0"/>
-      <c r="AG35" s="0"/>
-      <c r="AH35" s="0"/>
-      <c r="AI35" s="0"/>
-      <c r="AJ35" s="0"/>
-      <c r="AK35" s="0"/>
-      <c r="AL35" s="0"/>
-      <c r="AM35" s="0"/>
-      <c r="AN35" s="0"/>
-    </row>
-    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE36" s="0"/>
-      <c r="AF36" s="0"/>
-      <c r="AG36" s="0"/>
-      <c r="AH36" s="0"/>
-      <c r="AI36" s="0"/>
-      <c r="AJ36" s="0"/>
-      <c r="AK36" s="0"/>
-      <c r="AL36" s="0"/>
-      <c r="AM36" s="0"/>
-      <c r="AN36" s="0"/>
-    </row>
-    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="0"/>
-      <c r="AF37" s="0"/>
-      <c r="AG37" s="0"/>
-      <c r="AH37" s="0"/>
-      <c r="AI37" s="0"/>
-      <c r="AJ37" s="0"/>
-      <c r="AK37" s="0"/>
-      <c r="AL37" s="0"/>
-      <c r="AM37" s="0"/>
-      <c r="AN37" s="0"/>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
     </row>
     <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE38" s="0"/>
-      <c r="AF38" s="0"/>
-      <c r="AG38" s="0"/>
-      <c r="AH38" s="0"/>
-      <c r="AI38" s="0"/>
-      <c r="AJ38" s="0"/>
-      <c r="AK38" s="0"/>
-      <c r="AL38" s="0"/>
-      <c r="AM38" s="0"/>
-      <c r="AN38" s="0"/>
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
     </row>
     <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE39" s="0"/>
-      <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
-      <c r="AH39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-      <c r="AL39" s="0"/>
-      <c r="AM39" s="0"/>
-      <c r="AN39" s="0"/>
-    </row>
-    <row r="40" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE40" s="0"/>
-      <c r="AF40" s="0"/>
-      <c r="AG40" s="0"/>
-      <c r="AH40" s="0"/>
-      <c r="AI40" s="0"/>
-      <c r="AJ40" s="0"/>
-      <c r="AK40" s="0"/>
-      <c r="AL40" s="0"/>
-      <c r="AM40" s="0"/>
-      <c r="AN40" s="0"/>
-    </row>
-    <row r="41" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE41" s="0"/>
-      <c r="AF41" s="0"/>
-      <c r="AG41" s="0"/>
-      <c r="AH41" s="0"/>
-      <c r="AI41" s="0"/>
-      <c r="AJ41" s="0"/>
-      <c r="AK41" s="0"/>
-      <c r="AL41" s="0"/>
-      <c r="AM41" s="0"/>
-      <c r="AN41" s="0"/>
+      <c r="A39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
     </row>
     <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE42" s="0"/>
-      <c r="AF42" s="0"/>
-      <c r="AG42" s="0"/>
-      <c r="AH42" s="0"/>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
-      <c r="AK42" s="0"/>
-      <c r="AL42" s="0"/>
-      <c r="AM42" s="0"/>
-      <c r="AN42" s="0"/>
-    </row>
-    <row r="43" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE43" s="0"/>
-      <c r="AF43" s="0"/>
-      <c r="AG43" s="0"/>
-      <c r="AH43" s="0"/>
-      <c r="AI43" s="0"/>
-      <c r="AJ43" s="0"/>
-      <c r="AK43" s="0"/>
-      <c r="AL43" s="0"/>
-      <c r="AM43" s="0"/>
-      <c r="AN43" s="0"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
     </row>
     <row r="44" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE44" s="0"/>
-      <c r="AF44" s="0"/>
-      <c r="AG44" s="0"/>
-      <c r="AH44" s="0"/>
-      <c r="AI44" s="0"/>
-      <c r="AJ44" s="0"/>
-      <c r="AK44" s="0"/>
-      <c r="AL44" s="0"/>
-      <c r="AM44" s="0"/>
-      <c r="AN44" s="0"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
     </row>
     <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE45" s="0"/>
-      <c r="AF45" s="0"/>
-      <c r="AG45" s="0"/>
-      <c r="AH45" s="0"/>
-      <c r="AI45" s="0"/>
-      <c r="AJ45" s="0"/>
-      <c r="AK45" s="0"/>
-      <c r="AL45" s="0"/>
-      <c r="AM45" s="0"/>
-      <c r="AN45" s="0"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE46" s="0"/>
-      <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
-      <c r="AH46" s="0"/>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0"/>
-      <c r="AL46" s="0"/>
-      <c r="AM46" s="0"/>
-      <c r="AN46" s="0"/>
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
     </row>
     <row r="47" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE47" s="0"/>
-      <c r="AF47" s="0"/>
-      <c r="AG47" s="0"/>
-      <c r="AH47" s="0"/>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
-      <c r="AK47" s="0"/>
-      <c r="AL47" s="0"/>
-      <c r="AM47" s="0"/>
-      <c r="AN47" s="0"/>
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>34</v>
@@ -3039,32 +3586,41 @@
       <c r="F48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE48" s="0"/>
-      <c r="AF48" s="0"/>
-      <c r="AG48" s="0"/>
-      <c r="AH48" s="0"/>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
-      <c r="AK48" s="0"/>
-      <c r="AL48" s="0"/>
-      <c r="AM48" s="0"/>
-      <c r="AN48" s="0"/>
+      <c r="G48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>34</v>
@@ -3072,32 +3628,41 @@
       <c r="F49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
+      <c r="G49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>34</v>
@@ -3105,32 +3670,41 @@
       <c r="F50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
-      <c r="AM50" s="0"/>
-      <c r="AN50" s="0"/>
+      <c r="G50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>34</v>
@@ -3138,32 +3712,41 @@
       <c r="F51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
-      <c r="AM51" s="0"/>
-      <c r="AN51" s="0"/>
+      <c r="G51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
     </row>
     <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>34</v>
@@ -3171,385 +3754,502 @@
       <c r="F52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
+      <c r="G52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
     </row>
     <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
     </row>
     <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0"/>
-      <c r="AN54" s="0"/>
-    </row>
-    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0"/>
-      <c r="AH55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
-      <c r="AK55" s="0"/>
-      <c r="AL55" s="0"/>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0"/>
-    </row>
-    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE56" s="0"/>
-      <c r="AF56" s="0"/>
-      <c r="AG56" s="0"/>
-      <c r="AH56" s="0"/>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
-      <c r="AK56" s="0"/>
-      <c r="AL56" s="0"/>
-      <c r="AM56" s="0"/>
-      <c r="AN56" s="0"/>
-    </row>
-    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
-      <c r="AK57" s="0"/>
-      <c r="AL57" s="0"/>
-      <c r="AM57" s="0"/>
-      <c r="AN57" s="0"/>
-    </row>
-    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0"/>
-      <c r="AM58" s="0"/>
-      <c r="AN58" s="0"/>
-    </row>
-    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
-      <c r="AK59" s="0"/>
-      <c r="AL59" s="0"/>
-      <c r="AM59" s="0"/>
-      <c r="AN59" s="0"/>
-    </row>
-    <row r="60" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
-      <c r="AK60" s="0"/>
-      <c r="AL60" s="0"/>
-      <c r="AM60" s="0"/>
-      <c r="AN60" s="0"/>
-    </row>
-    <row r="61" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE61" s="0"/>
-      <c r="AF61" s="0"/>
-      <c r="AG61" s="0"/>
-      <c r="AH61" s="0"/>
-      <c r="AI61" s="0"/>
-      <c r="AJ61" s="0"/>
-      <c r="AK61" s="0"/>
-      <c r="AL61" s="0"/>
-      <c r="AM61" s="0"/>
-      <c r="AN61" s="0"/>
+      <c r="E61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
     </row>
     <row r="62" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE62" s="0"/>
-      <c r="AF62" s="0"/>
-      <c r="AG62" s="0"/>
-      <c r="AH62" s="0"/>
-      <c r="AI62" s="0"/>
-      <c r="AJ62" s="0"/>
-      <c r="AK62" s="0"/>
-      <c r="AL62" s="0"/>
-      <c r="AM62" s="0"/>
-      <c r="AN62" s="0"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
     </row>
     <row r="63" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE63" s="0"/>
-      <c r="AF63" s="0"/>
-      <c r="AG63" s="0"/>
-      <c r="AH63" s="0"/>
-      <c r="AI63" s="0"/>
-      <c r="AJ63" s="0"/>
-      <c r="AK63" s="0"/>
-      <c r="AL63" s="0"/>
-      <c r="AM63" s="0"/>
-      <c r="AN63" s="0"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
     </row>
     <row r="64" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE64" s="0"/>
-      <c r="AF64" s="0"/>
-      <c r="AG64" s="0"/>
-      <c r="AH64" s="0"/>
-      <c r="AI64" s="0"/>
-      <c r="AJ64" s="0"/>
-      <c r="AK64" s="0"/>
-      <c r="AL64" s="0"/>
-      <c r="AM64" s="0"/>
-      <c r="AN64" s="0"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
     </row>
     <row r="65" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE65" s="0"/>
-      <c r="AF65" s="0"/>
-      <c r="AG65" s="0"/>
-      <c r="AH65" s="0"/>
-      <c r="AI65" s="0"/>
-      <c r="AJ65" s="0"/>
-      <c r="AK65" s="0"/>
-      <c r="AL65" s="0"/>
-      <c r="AM65" s="0"/>
-      <c r="AN65" s="0"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
     </row>
     <row r="66" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE66" s="0"/>
-      <c r="AF66" s="0"/>
-      <c r="AG66" s="0"/>
-      <c r="AH66" s="0"/>
-      <c r="AI66" s="0"/>
-      <c r="AJ66" s="0"/>
-      <c r="AK66" s="0"/>
-      <c r="AL66" s="0"/>
-      <c r="AM66" s="0"/>
-      <c r="AN66" s="0"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
     </row>
     <row r="67" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE67" s="0"/>
-      <c r="AF67" s="0"/>
-      <c r="AG67" s="0"/>
-      <c r="AH67" s="0"/>
-      <c r="AI67" s="0"/>
-      <c r="AJ67" s="0"/>
-      <c r="AK67" s="0"/>
-      <c r="AL67" s="0"/>
-      <c r="AM67" s="0"/>
-      <c r="AN67" s="0"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
     </row>
     <row r="68" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE68" s="0"/>
-      <c r="AF68" s="0"/>
-      <c r="AG68" s="0"/>
-      <c r="AH68" s="0"/>
-      <c r="AI68" s="0"/>
-      <c r="AJ68" s="0"/>
-      <c r="AK68" s="0"/>
-      <c r="AL68" s="0"/>
-      <c r="AM68" s="0"/>
-      <c r="AN68" s="0"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE69" s="0"/>
-      <c r="AF69" s="0"/>
-      <c r="AG69" s="0"/>
-      <c r="AH69" s="0"/>
-      <c r="AI69" s="0"/>
-      <c r="AJ69" s="0"/>
-      <c r="AK69" s="0"/>
-      <c r="AL69" s="0"/>
-      <c r="AM69" s="0"/>
-      <c r="AN69" s="0"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
     </row>
     <row r="70" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE70" s="0"/>
-      <c r="AF70" s="0"/>
-      <c r="AG70" s="0"/>
-      <c r="AH70" s="0"/>
-      <c r="AI70" s="0"/>
-      <c r="AJ70" s="0"/>
-      <c r="AK70" s="0"/>
-      <c r="AL70" s="0"/>
-      <c r="AM70" s="0"/>
-      <c r="AN70" s="0"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
     </row>
     <row r="71" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE71" s="0"/>
-      <c r="AF71" s="0"/>
-      <c r="AG71" s="0"/>
-      <c r="AH71" s="0"/>
-      <c r="AI71" s="0"/>
-      <c r="AJ71" s="0"/>
-      <c r="AK71" s="0"/>
-      <c r="AL71" s="0"/>
-      <c r="AM71" s="0"/>
-      <c r="AN71" s="0"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
     </row>
     <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE72" s="0"/>
-      <c r="AF72" s="0"/>
-      <c r="AG72" s="0"/>
-      <c r="AH72" s="0"/>
-      <c r="AI72" s="0"/>
-      <c r="AJ72" s="0"/>
-      <c r="AK72" s="0"/>
-      <c r="AL72" s="0"/>
-      <c r="AM72" s="0"/>
-      <c r="AN72" s="0"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
     </row>
     <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE73" s="0"/>
-      <c r="AF73" s="0"/>
-      <c r="AG73" s="0"/>
-      <c r="AH73" s="0"/>
-      <c r="AI73" s="0"/>
-      <c r="AJ73" s="0"/>
-      <c r="AK73" s="0"/>
-      <c r="AL73" s="0"/>
-      <c r="AM73" s="0"/>
-      <c r="AN73" s="0"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
     </row>
     <row r="74" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE74" s="0"/>
-      <c r="AF74" s="0"/>
-      <c r="AG74" s="0"/>
-      <c r="AH74" s="0"/>
-      <c r="AI74" s="0"/>
-      <c r="AJ74" s="0"/>
-      <c r="AK74" s="0"/>
-      <c r="AL74" s="0"/>
-      <c r="AM74" s="0"/>
-      <c r="AN74" s="0"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
     </row>
     <row r="75" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE75" s="0"/>
-      <c r="AF75" s="0"/>
-      <c r="AG75" s="0"/>
-      <c r="AH75" s="0"/>
-      <c r="AI75" s="0"/>
-      <c r="AJ75" s="0"/>
-      <c r="AK75" s="0"/>
-      <c r="AL75" s="0"/>
-      <c r="AM75" s="0"/>
-      <c r="AN75" s="0"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
     </row>
     <row r="76" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE76" s="0"/>
-      <c r="AF76" s="0"/>
-      <c r="AG76" s="0"/>
-      <c r="AH76" s="0"/>
-      <c r="AI76" s="0"/>
-      <c r="AJ76" s="0"/>
-      <c r="AK76" s="0"/>
-      <c r="AL76" s="0"/>
-      <c r="AM76" s="0"/>
-      <c r="AN76" s="0"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
     </row>
     <row r="77" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE77" s="0"/>
-      <c r="AF77" s="0"/>
-      <c r="AG77" s="0"/>
-      <c r="AH77" s="0"/>
-      <c r="AI77" s="0"/>
-      <c r="AJ77" s="0"/>
-      <c r="AK77" s="0"/>
-      <c r="AL77" s="0"/>
-      <c r="AM77" s="0"/>
-      <c r="AN77" s="0"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE78" s="0"/>
-      <c r="AF78" s="0"/>
-      <c r="AG78" s="0"/>
-      <c r="AH78" s="0"/>
-      <c r="AI78" s="0"/>
-      <c r="AJ78" s="0"/>
-      <c r="AK78" s="0"/>
-      <c r="AL78" s="0"/>
-      <c r="AM78" s="0"/>
-      <c r="AN78" s="0"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
     </row>
     <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE79" s="0"/>
-      <c r="AF79" s="0"/>
-      <c r="AG79" s="0"/>
-      <c r="AH79" s="0"/>
-      <c r="AI79" s="0"/>
-      <c r="AJ79" s="0"/>
-      <c r="AK79" s="0"/>
-      <c r="AL79" s="0"/>
-      <c r="AM79" s="0"/>
-      <c r="AN79" s="0"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
     </row>
     <row r="80" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
